--- a/tests/test_files/import_teszt_excel.xlsx
+++ b/tests/test_files/import_teszt_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/attesz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/attesz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,24 +27,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Mezo_1</t>
-  </si>
-  <si>
-    <t>Mezo_2</t>
-  </si>
-  <si>
-    <t>Mezo_3</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+  <si>
+    <t>campaign_id</t>
+  </si>
+  <si>
+    <t>forras</t>
+  </si>
+  <si>
+    <t>forras_kodja</t>
+  </si>
+  <si>
+    <t>nev</t>
+  </si>
+  <si>
+    <t>anyja_neve</t>
+  </si>
+  <si>
+    <t>szuletesi_datum</t>
+  </si>
+  <si>
+    <t>iranyitoszam1</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Gipsz Jakab1</t>
+  </si>
+  <si>
+    <t>Gipsz Jakab2</t>
+  </si>
+  <si>
+    <t>Próba Irén</t>
+  </si>
+  <si>
+    <t>Anyja Iréne1</t>
+  </si>
+  <si>
+    <t>Anyja Béla2</t>
+  </si>
+  <si>
+    <t>Próba Márta</t>
+  </si>
+  <si>
+    <t>1234f</t>
   </si>
 </sst>
 </file>
@@ -90,9 +117,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,13 +466,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,38 +492,86 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>4</v>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2">
+        <v>29466</v>
+      </c>
+      <c r="G2">
+        <v>2462</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
+        <v>36527</v>
+      </c>
+      <c r="G3">
+        <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2">
+        <v>28070</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
